--- a/postAnalysis/Data_inspection/Survey/betatab.xlsx
+++ b/postAnalysis/Data_inspection/Survey/betatab.xlsx
@@ -13,7 +13,304 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="792">
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run2 minus Run1</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run2</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run2 minus Run1</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run2</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run2 minus Run1</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run2</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run2 minus Run1</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run2</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run2 minus Run1</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run2</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run2 minus Run1</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run2</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run2 minus Run1</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run2</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run2 minus Run1</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run2</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run2 minus Run1</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run3 minus Run2</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CIs_1</t>
+  </si>
+  <si>
+    <t>CIs_2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Sig</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>pt1LEFT</t>
+  </si>
+  <si>
+    <t>pt1RIGHT</t>
+  </si>
+  <si>
+    <t>pt2LEFT</t>
+  </si>
+  <si>
+    <t>pt2RIGHT</t>
+  </si>
+  <si>
+    <t>pt3LEFT</t>
+  </si>
+  <si>
+    <t>pt3RIGHT</t>
+  </si>
+  <si>
+    <t>pt4RIGHT</t>
+  </si>
+  <si>
+    <t>pt5LEFT</t>
+  </si>
+  <si>
+    <t>pt5RIGHT</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
   <si>
     <t>Group</t>
   </si>
@@ -2112,7 +2409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2127,11 +2424,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2140,6 +2438,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2164,42 +2463,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>594</v>
+        <v>693</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>676</v>
+        <v>775</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>677</v>
+        <v>776</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>679</v>
+        <v>778</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>680</v>
+        <v>779</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>691</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>595</v>
+        <v>694</v>
       </c>
       <c r="B2" s="0">
         <v>1.7395080473605371</v>
       </c>
       <c r="C2" s="0">
-        <v>1.6539881153496341</v>
+        <v>1.6528154886662949</v>
       </c>
       <c r="D2" s="0">
-        <v>1.8180663850605225</v>
+        <v>1.8184150003688886</v>
       </c>
       <c r="E2" s="0">
         <v>86</v>
@@ -2208,24 +2507,24 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="B3" s="0">
         <v>1.6538704734887126</v>
       </c>
       <c r="C3" s="0">
-        <v>1.5770539120079374</v>
+        <v>1.5764380881060571</v>
       </c>
       <c r="D3" s="0">
-        <v>1.7217584389268972</v>
+        <v>1.7213077179687624</v>
       </c>
       <c r="E3" s="0">
         <v>86</v>
@@ -2234,48 +2533,48 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>597</v>
+        <v>696</v>
       </c>
       <c r="B4" s="0">
         <v>-0.085637573871824468</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.19648260031635753</v>
+        <v>-0.19384836551639306</v>
       </c>
       <c r="D4" s="0">
-        <v>0.026289480956232292</v>
+        <v>0.024849261559681923</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0">
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>598</v>
+        <v>697</v>
       </c>
       <c r="B5" s="0">
         <v>1.7395080473605371</v>
       </c>
       <c r="C5" s="0">
-        <v>1.6552533411936305</v>
+        <v>1.6537575284793353</v>
       </c>
       <c r="D5" s="0">
-        <v>1.8179089556877543</v>
+        <v>1.8172379680953286</v>
       </c>
       <c r="E5" s="0">
         <v>86</v>
@@ -2284,24 +2583,24 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="B6" s="0">
         <v>1.7811239409625146</v>
       </c>
       <c r="C6" s="0">
-        <v>1.7013704522599187</v>
+        <v>1.7005005229477503</v>
       </c>
       <c r="D6" s="0">
-        <v>1.8569578117875116</v>
+        <v>1.8558388986627119</v>
       </c>
       <c r="E6" s="0">
         <v>86</v>
@@ -2310,48 +2609,48 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="B7" s="0">
         <v>0.041615893601977483</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.071503727060863706</v>
+        <v>-0.073575173881439401</v>
       </c>
       <c r="D7" s="0">
-        <v>0.15736498604211568</v>
+        <v>0.15682382795833982</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0">
         <v>0</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>601</v>
+        <v>700</v>
       </c>
       <c r="B8" s="0">
         <v>1.6538704734887126</v>
       </c>
       <c r="C8" s="0">
-        <v>1.5756160808017574</v>
+        <v>1.5738300132825696</v>
       </c>
       <c r="D8" s="0">
-        <v>1.7208530426102473</v>
+        <v>1.7197462539126529</v>
       </c>
       <c r="E8" s="0">
         <v>86</v>
@@ -2360,24 +2659,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>602</v>
+        <v>701</v>
       </c>
       <c r="B9" s="0">
         <v>1.7811239409625146</v>
       </c>
       <c r="C9" s="0">
-        <v>1.7007412777107798</v>
+        <v>1.6982255781739948</v>
       </c>
       <c r="D9" s="0">
-        <v>1.8555862579770621</v>
+        <v>1.855299234785563</v>
       </c>
       <c r="E9" s="0">
         <v>86</v>
@@ -2386,48 +2685,48 @@
         <v>0</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>603</v>
+        <v>702</v>
       </c>
       <c r="B10" s="0">
         <v>0.12725346747380195</v>
       </c>
       <c r="C10" s="0">
-        <v>0.021884982256330322</v>
+        <v>0.021543723993562976</v>
       </c>
       <c r="D10" s="0">
-        <v>0.23406305080245882</v>
+        <v>0.23415744380856751</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0">
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>604</v>
+        <v>703</v>
       </c>
       <c r="B11" s="0">
         <v>2.0649388669251909</v>
       </c>
       <c r="C11" s="0">
-        <v>2.0136045150784523</v>
+        <v>2.0121944123264166</v>
       </c>
       <c r="D11" s="0">
-        <v>2.1210375823202652</v>
+        <v>2.1242963401393733</v>
       </c>
       <c r="E11" s="0">
         <v>86</v>
@@ -2436,24 +2735,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>605</v>
+        <v>704</v>
       </c>
       <c r="B12" s="0">
         <v>2.1434191999908685</v>
       </c>
       <c r="C12" s="0">
-        <v>2.0975883963911555</v>
+        <v>2.0971640904867881</v>
       </c>
       <c r="D12" s="0">
-        <v>2.1914427446538429</v>
+        <v>2.1904706231904076</v>
       </c>
       <c r="E12" s="0">
         <v>86</v>
@@ -2462,48 +2761,48 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>606</v>
+        <v>705</v>
       </c>
       <c r="B13" s="0">
         <v>0.078480333065677588</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0058288857381472194</v>
+        <v>0.0064359614349711811</v>
       </c>
       <c r="D13" s="0">
-        <v>0.15100550841377913</v>
+        <v>0.14937303446641081</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0">
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>607</v>
+        <v>706</v>
       </c>
       <c r="B14" s="0">
         <v>2.0649388669251909</v>
       </c>
       <c r="C14" s="0">
-        <v>2.0126951670892641</v>
+        <v>2.0131440837642351</v>
       </c>
       <c r="D14" s="0">
-        <v>2.1217207858816911</v>
+        <v>2.1211622135685455</v>
       </c>
       <c r="E14" s="0">
         <v>86</v>
@@ -2512,24 +2811,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>608</v>
+        <v>707</v>
       </c>
       <c r="B15" s="0">
         <v>2.111232302426473</v>
       </c>
       <c r="C15" s="0">
-        <v>2.066105999879265</v>
+        <v>2.0671067287517526</v>
       </c>
       <c r="D15" s="0">
-        <v>2.1544324449674273</v>
+        <v>2.1550485916092663</v>
       </c>
       <c r="E15" s="0">
         <v>86</v>
@@ -2538,48 +2837,48 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>609</v>
+        <v>708</v>
       </c>
       <c r="B16" s="0">
         <v>0.046293435501282065</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.021822142857645048</v>
+        <v>-0.02281123363068981</v>
       </c>
       <c r="D16" s="0">
-        <v>0.11581306558714788</v>
+        <v>0.11691428210053889</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0">
         <v>0</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>610</v>
+        <v>709</v>
       </c>
       <c r="B17" s="0">
         <v>2.1434191999908685</v>
       </c>
       <c r="C17" s="0">
-        <v>2.0952007909583066</v>
+        <v>2.0972612642581119</v>
       </c>
       <c r="D17" s="0">
-        <v>2.1911451453610957</v>
+        <v>2.1907264194448728</v>
       </c>
       <c r="E17" s="0">
         <v>86</v>
@@ -2588,24 +2887,24 @@
         <v>0</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>611</v>
+        <v>710</v>
       </c>
       <c r="B18" s="0">
         <v>2.111232302426473</v>
       </c>
       <c r="C18" s="0">
-        <v>2.0669140013329566</v>
+        <v>2.0675407091852138</v>
       </c>
       <c r="D18" s="0">
-        <v>2.1561883826241677</v>
+        <v>2.1574117690209911</v>
       </c>
       <c r="E18" s="0">
         <v>86</v>
@@ -2614,48 +2913,48 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>612</v>
+        <v>711</v>
       </c>
       <c r="B19" s="0">
         <v>-0.032186897564395522</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.097204199750448236</v>
+        <v>-0.096191530820788337</v>
       </c>
       <c r="D19" s="0">
-        <v>0.031741367901205519</v>
+        <v>0.032531433162495293</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0">
         <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>613</v>
+        <v>712</v>
       </c>
       <c r="B20" s="0">
         <v>0.4578808058116231</v>
       </c>
       <c r="C20" s="0">
-        <v>0.3903829388752173</v>
+        <v>0.38929474847871937</v>
       </c>
       <c r="D20" s="0">
-        <v>0.53464548194423589</v>
+        <v>0.53262035435426192</v>
       </c>
       <c r="E20" s="0">
         <v>86</v>
@@ -2664,24 +2963,24 @@
         <v>0</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>614</v>
+        <v>713</v>
       </c>
       <c r="B21" s="0">
         <v>0.41178177280806239</v>
       </c>
       <c r="C21" s="0">
-        <v>0.34881050568986438</v>
+        <v>0.34867685485151273</v>
       </c>
       <c r="D21" s="0">
-        <v>0.48487098044839239</v>
+        <v>0.48606179822958584</v>
       </c>
       <c r="E21" s="0">
         <v>86</v>
@@ -2690,48 +2989,48 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>615</v>
+        <v>714</v>
       </c>
       <c r="B22" s="0">
         <v>-0.046099033003560719</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.14487617255722723</v>
+        <v>-0.14620338695064333</v>
       </c>
       <c r="D22" s="0">
-        <v>0.051330865427327649</v>
+        <v>0.052374155092093394</v>
       </c>
       <c r="E22" s="0"/>
       <c r="F22" s="0">
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>616</v>
+        <v>715</v>
       </c>
       <c r="B23" s="0">
         <v>0.4578808058116231</v>
       </c>
       <c r="C23" s="0">
-        <v>0.39000999937502878</v>
+        <v>0.39085128114698647</v>
       </c>
       <c r="D23" s="0">
-        <v>0.53334718156228211</v>
+        <v>0.53389612396934416</v>
       </c>
       <c r="E23" s="0">
         <v>86</v>
@@ -2740,24 +3039,24 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>617</v>
+        <v>716</v>
       </c>
       <c r="B24" s="0">
         <v>0.42925813155540637</v>
       </c>
       <c r="C24" s="0">
-        <v>0.36008508523668337</v>
+        <v>0.36200019360181535</v>
       </c>
       <c r="D24" s="0">
-        <v>0.5028298735148109</v>
+        <v>0.50414386056268856</v>
       </c>
       <c r="E24" s="0">
         <v>86</v>
@@ -2766,48 +3065,48 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>618</v>
+        <v>717</v>
       </c>
       <c r="B25" s="0">
         <v>-0.028622674256216729</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.1305421300988848</v>
+        <v>-0.13152973494655987</v>
       </c>
       <c r="D25" s="0">
-        <v>0.072913265122064086</v>
+        <v>0.072214773745297833</v>
       </c>
       <c r="E25" s="0"/>
       <c r="F25" s="0">
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>619</v>
+        <v>718</v>
       </c>
       <c r="B26" s="0">
         <v>0.41178177280806239</v>
       </c>
       <c r="C26" s="0">
-        <v>0.3475404871622802</v>
+        <v>0.34908906304322795</v>
       </c>
       <c r="D26" s="0">
-        <v>0.4834457136273998</v>
+        <v>0.48813688761933821</v>
       </c>
       <c r="E26" s="0">
         <v>86</v>
@@ -2816,24 +3115,24 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>620</v>
+        <v>719</v>
       </c>
       <c r="B27" s="0">
         <v>0.42925813155540637</v>
       </c>
       <c r="C27" s="0">
-        <v>0.36244375004359874</v>
+        <v>0.36124865804918993</v>
       </c>
       <c r="D27" s="0">
-        <v>0.50336583045688488</v>
+        <v>0.5056534925556555</v>
       </c>
       <c r="E27" s="0">
         <v>86</v>
@@ -2842,48 +3141,48 @@
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>621</v>
+        <v>720</v>
       </c>
       <c r="B28" s="0">
         <v>0.01747635874734399</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.082479053671358035</v>
+        <v>-0.07993714517381606</v>
       </c>
       <c r="D28" s="0">
-        <v>0.11666083452085571</v>
+        <v>0.11604771640865713</v>
       </c>
       <c r="E28" s="0"/>
       <c r="F28" s="0">
         <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>622</v>
+        <v>721</v>
       </c>
       <c r="B29" s="0">
         <v>1.5198334812126886</v>
       </c>
       <c r="C29" s="0">
-        <v>1.441956197953504</v>
+        <v>1.4382370684134782</v>
       </c>
       <c r="D29" s="0">
-        <v>1.602315239272267</v>
+        <v>1.6019398653303285</v>
       </c>
       <c r="E29" s="0">
         <v>86</v>
@@ -2892,24 +3191,24 @@
         <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>623</v>
+        <v>722</v>
       </c>
       <c r="B30" s="0">
         <v>1.3520601163235939</v>
       </c>
       <c r="C30" s="0">
-        <v>1.2688525246861915</v>
+        <v>1.2696728343298433</v>
       </c>
       <c r="D30" s="0">
-        <v>1.4386923656368205</v>
+        <v>1.4412134443371092</v>
       </c>
       <c r="E30" s="0">
         <v>86</v>
@@ -2918,48 +3217,48 @@
         <v>0</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>624</v>
+        <v>723</v>
       </c>
       <c r="B31" s="0">
         <v>-0.16777336488909467</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.28602943448463547</v>
+        <v>-0.2859555844238868</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.048852990207424507</v>
+        <v>-0.05348301985338022</v>
       </c>
       <c r="E31" s="0"/>
       <c r="F31" s="0">
         <v>1</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>625</v>
+        <v>724</v>
       </c>
       <c r="B32" s="0">
         <v>1.5198334812126886</v>
       </c>
       <c r="C32" s="0">
-        <v>1.4386740271686116</v>
+        <v>1.4368669660010571</v>
       </c>
       <c r="D32" s="0">
-        <v>1.6035981970055539</v>
+        <v>1.6015734574670693</v>
       </c>
       <c r="E32" s="0">
         <v>86</v>
@@ -2968,24 +3267,24 @@
         <v>0</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>626</v>
+        <v>725</v>
       </c>
       <c r="B33" s="0">
         <v>1.4367723909034673</v>
       </c>
       <c r="C33" s="0">
-        <v>1.3623035743257783</v>
+        <v>1.3627995343153521</v>
       </c>
       <c r="D33" s="0">
-        <v>1.5170857491551519</v>
+        <v>1.5186225775892335</v>
       </c>
       <c r="E33" s="0">
         <v>86</v>
@@ -2994,48 +3293,48 @@
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>627</v>
+        <v>726</v>
       </c>
       <c r="B34" s="0">
         <v>-0.083061090309221264</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.19461742379127001</v>
+        <v>-0.19427478545672205</v>
       </c>
       <c r="D34" s="0">
-        <v>0.029836433624467862</v>
+        <v>0.03358587229028076</v>
       </c>
       <c r="E34" s="0"/>
       <c r="F34" s="0">
         <v>0</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>628</v>
+        <v>727</v>
       </c>
       <c r="B35" s="0">
         <v>1.3520601163235939</v>
       </c>
       <c r="C35" s="0">
-        <v>1.2684164483465863</v>
+        <v>1.2683443039708391</v>
       </c>
       <c r="D35" s="0">
-        <v>1.4379511185074501</v>
+        <v>1.4397115976105748</v>
       </c>
       <c r="E35" s="0">
         <v>86</v>
@@ -3044,24 +3343,24 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>629</v>
+        <v>728</v>
       </c>
       <c r="B36" s="0">
         <v>1.4367723909034673</v>
       </c>
       <c r="C36" s="0">
-        <v>1.3613200054991137</v>
+        <v>1.3620237238276713</v>
       </c>
       <c r="D36" s="0">
-        <v>1.5156949893198624</v>
+        <v>1.5181041622142228</v>
       </c>
       <c r="E36" s="0">
         <v>86</v>
@@ -3070,48 +3369,48 @@
         <v>0</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>630</v>
+        <v>729</v>
       </c>
       <c r="B37" s="0">
         <v>0.084712274579873403</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.032828222288349654</v>
+        <v>-0.031704166699024983</v>
       </c>
       <c r="D37" s="0">
-        <v>0.20322020919462602</v>
+        <v>0.19931255015420024</v>
       </c>
       <c r="E37" s="0"/>
       <c r="F37" s="0">
         <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>631</v>
+        <v>730</v>
       </c>
       <c r="B38" s="0">
         <v>1.7876105041162995</v>
       </c>
       <c r="C38" s="0">
-        <v>1.7128822634519643</v>
+        <v>1.71479446805109</v>
       </c>
       <c r="D38" s="0">
-        <v>1.8648129389092776</v>
+        <v>1.8643055340012904</v>
       </c>
       <c r="E38" s="0">
         <v>86</v>
@@ -3120,24 +3419,24 @@
         <v>0</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>632</v>
+        <v>731</v>
       </c>
       <c r="B39" s="0">
         <v>1.6944769717456736</v>
       </c>
       <c r="C39" s="0">
-        <v>1.6276854194464068</v>
+        <v>1.6275571961828108</v>
       </c>
       <c r="D39" s="0">
-        <v>1.7656286806054646</v>
+        <v>1.7664084321044387</v>
       </c>
       <c r="E39" s="0">
         <v>86</v>
@@ -3146,48 +3445,48 @@
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>633</v>
+        <v>732</v>
       </c>
       <c r="B40" s="0">
         <v>-0.093133532370625938</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.19571324787282385</v>
+        <v>-0.19368697704811066</v>
       </c>
       <c r="D40" s="0">
-        <v>0.0053919685517960225</v>
+        <v>0.01235578369254442</v>
       </c>
       <c r="E40" s="0"/>
       <c r="F40" s="0">
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>634</v>
+        <v>733</v>
       </c>
       <c r="B41" s="0">
         <v>1.7876105041162995</v>
       </c>
       <c r="C41" s="0">
-        <v>1.7149978301664475</v>
+        <v>1.7141370241152192</v>
       </c>
       <c r="D41" s="0">
-        <v>1.8671395532909183</v>
+        <v>1.8660049196865196</v>
       </c>
       <c r="E41" s="0">
         <v>86</v>
@@ -3196,24 +3495,24 @@
         <v>0</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>635</v>
+        <v>734</v>
       </c>
       <c r="B42" s="0">
         <v>1.7643092407005918</v>
       </c>
       <c r="C42" s="0">
-        <v>1.7011070336076743</v>
+        <v>1.7040909003936684</v>
       </c>
       <c r="D42" s="0">
-        <v>1.8284249223361633</v>
+        <v>1.8272833471115666</v>
       </c>
       <c r="E42" s="0">
         <v>86</v>
@@ -3222,48 +3521,48 @@
         <v>0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>636</v>
+        <v>735</v>
       </c>
       <c r="B43" s="0">
         <v>-0.023301263415707707</v>
       </c>
       <c r="C43" s="0">
-        <v>-0.12214394423492503</v>
+        <v>-0.12203508516068322</v>
       </c>
       <c r="D43" s="0">
-        <v>0.075735562418990043</v>
+        <v>0.074938752011963761</v>
       </c>
       <c r="E43" s="0"/>
       <c r="F43" s="0">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>637</v>
+        <v>736</v>
       </c>
       <c r="B44" s="0">
         <v>1.6944769717456736</v>
       </c>
       <c r="C44" s="0">
-        <v>1.6266621215935415</v>
+        <v>1.627552486779889</v>
       </c>
       <c r="D44" s="0">
-        <v>1.7646201623456768</v>
+        <v>1.7655294862465341</v>
       </c>
       <c r="E44" s="0">
         <v>86</v>
@@ -3272,24 +3571,24 @@
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>638</v>
+        <v>737</v>
       </c>
       <c r="B45" s="0">
         <v>1.7643092407005918</v>
       </c>
       <c r="C45" s="0">
-        <v>1.7048502454301846</v>
+        <v>1.7031855475090394</v>
       </c>
       <c r="D45" s="0">
-        <v>1.8266152575773096</v>
+        <v>1.8264296582381963</v>
       </c>
       <c r="E45" s="0">
         <v>86</v>
@@ -3298,48 +3597,48 @@
         <v>0</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>639</v>
+        <v>738</v>
       </c>
       <c r="B46" s="0">
         <v>0.069832268954918231</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.020284183497296861</v>
+        <v>-0.023345678103510691</v>
       </c>
       <c r="D46" s="0">
-        <v>0.16318992929853993</v>
+        <v>0.16242888780544329</v>
       </c>
       <c r="E46" s="0"/>
       <c r="F46" s="0">
         <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>640</v>
+        <v>739</v>
       </c>
       <c r="B47" s="0">
         <v>1.5596589952873339</v>
       </c>
       <c r="C47" s="0">
-        <v>1.4994428771099404</v>
+        <v>1.501629625706558</v>
       </c>
       <c r="D47" s="0">
-        <v>1.6131981884967468</v>
+        <v>1.6130880329038615</v>
       </c>
       <c r="E47" s="0">
         <v>86</v>
@@ -3348,24 +3647,24 @@
         <v>0</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>641</v>
+        <v>740</v>
       </c>
       <c r="B48" s="0">
         <v>1.3797871466031524</v>
       </c>
       <c r="C48" s="0">
-        <v>1.3154615508822829</v>
+        <v>1.3181829571034118</v>
       </c>
       <c r="D48" s="0">
-        <v>1.4366082565395379</v>
+        <v>1.4381769683315051</v>
       </c>
       <c r="E48" s="0">
         <v>86</v>
@@ -3374,48 +3673,48 @@
         <v>0</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>642</v>
+        <v>741</v>
       </c>
       <c r="B49" s="0">
         <v>-0.17987184868418149</v>
       </c>
       <c r="C49" s="0">
-        <v>-0.26356507465047263</v>
+        <v>-0.26081462658785437</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.095507386067679612</v>
+        <v>-0.096075451051039429</v>
       </c>
       <c r="E49" s="0"/>
       <c r="F49" s="0">
         <v>1</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>643</v>
+        <v>742</v>
       </c>
       <c r="B50" s="0">
         <v>1.5596589952873339</v>
       </c>
       <c r="C50" s="0">
-        <v>1.4999872642418892</v>
+        <v>1.501697994220037</v>
       </c>
       <c r="D50" s="0">
-        <v>1.6155489890643024</v>
+        <v>1.6135186565491046</v>
       </c>
       <c r="E50" s="0">
         <v>86</v>
@@ -3424,24 +3723,24 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>644</v>
+        <v>743</v>
       </c>
       <c r="B51" s="0">
         <v>1.2904068289266248</v>
       </c>
       <c r="C51" s="0">
-        <v>1.2169911066784043</v>
+        <v>1.2172592367430615</v>
       </c>
       <c r="D51" s="0">
-        <v>1.360698022466045</v>
+        <v>1.3614144664083554</v>
       </c>
       <c r="E51" s="0">
         <v>86</v>
@@ -3450,48 +3749,48 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>645</v>
+        <v>744</v>
       </c>
       <c r="B52" s="0">
         <v>-0.26925216636070903</v>
       </c>
       <c r="C52" s="0">
-        <v>-0.36073388061586087</v>
+        <v>-0.3606442924108807</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.17900784489526467</v>
+        <v>-0.17844533083019887</v>
       </c>
       <c r="E52" s="0"/>
       <c r="F52" s="0">
         <v>1</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>646</v>
+        <v>745</v>
       </c>
       <c r="B53" s="0">
         <v>1.3797871466031524</v>
       </c>
       <c r="C53" s="0">
-        <v>1.3176863120385143</v>
+        <v>1.3180624995323209</v>
       </c>
       <c r="D53" s="0">
-        <v>1.439103874932897</v>
+        <v>1.4378367893702069</v>
       </c>
       <c r="E53" s="0">
         <v>86</v>
@@ -3500,24 +3799,24 @@
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="B54" s="0">
         <v>1.2904068289266248</v>
       </c>
       <c r="C54" s="0">
-        <v>1.2189794745360492</v>
+        <v>1.2185711512410951</v>
       </c>
       <c r="D54" s="0">
-        <v>1.3611854414408397</v>
+        <v>1.360375497383816</v>
       </c>
       <c r="E54" s="0">
         <v>86</v>
@@ -3526,48 +3825,48 @@
         <v>0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>648</v>
+        <v>747</v>
       </c>
       <c r="B55" s="0">
         <v>-0.089380317676527543</v>
       </c>
       <c r="C55" s="0">
-        <v>-0.18191392247214389</v>
+        <v>-0.18194244076904895</v>
       </c>
       <c r="D55" s="0">
-        <v>0.0050133302521734313</v>
+        <v>0.0021514128126004506</v>
       </c>
       <c r="E55" s="0"/>
       <c r="F55" s="0">
         <v>0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>649</v>
+        <v>748</v>
       </c>
       <c r="B56" s="0">
         <v>0.58744045182520421</v>
       </c>
       <c r="C56" s="0">
-        <v>0.51540480147197298</v>
+        <v>0.51430555914863241</v>
       </c>
       <c r="D56" s="0">
-        <v>0.66523501690596198</v>
+        <v>0.66550950030313394</v>
       </c>
       <c r="E56" s="0">
         <v>86</v>
@@ -3576,24 +3875,24 @@
         <v>0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="B57" s="0">
         <v>0.4303812199677951</v>
       </c>
       <c r="C57" s="0">
-        <v>0.36815335999007837</v>
+        <v>0.36779125978958682</v>
       </c>
       <c r="D57" s="0">
-        <v>0.49715611787080977</v>
+        <v>0.4983587174184731</v>
       </c>
       <c r="E57" s="0">
         <v>86</v>
@@ -3602,48 +3901,48 @@
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
       <c r="B58" s="0">
         <v>-0.15705923185740911</v>
       </c>
       <c r="C58" s="0">
-        <v>-0.25903222853604041</v>
+        <v>-0.2582671682277996</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.054668272932127199</v>
+        <v>-0.05659243886632942</v>
       </c>
       <c r="E58" s="0"/>
       <c r="F58" s="0">
         <v>1</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="B59" s="0">
         <v>0.58744045182520421</v>
       </c>
       <c r="C59" s="0">
-        <v>0.51461048533733345</v>
+        <v>0.51360205789175029</v>
       </c>
       <c r="D59" s="0">
-        <v>0.66551995162473065</v>
+        <v>0.66504238122441173</v>
       </c>
       <c r="E59" s="0">
         <v>86</v>
@@ -3652,24 +3951,24 @@
         <v>0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>653</v>
+        <v>752</v>
       </c>
       <c r="B60" s="0">
         <v>0.37650767150364201</v>
       </c>
       <c r="C60" s="0">
-        <v>0.31950729528963329</v>
+        <v>0.31823839022289963</v>
       </c>
       <c r="D60" s="0">
-        <v>0.44493708725174941</v>
+        <v>0.4451300051682282</v>
       </c>
       <c r="E60" s="0">
         <v>86</v>
@@ -3678,48 +3977,48 @@
         <v>0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
       <c r="B61" s="0">
         <v>-0.21093278032156221</v>
       </c>
       <c r="C61" s="0">
-        <v>-0.3093878792702428</v>
+        <v>-0.30926923055599109</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.11435285093959033</v>
+        <v>-0.11207457325999259</v>
       </c>
       <c r="E61" s="0"/>
       <c r="F61" s="0">
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>655</v>
+        <v>754</v>
       </c>
       <c r="B62" s="0">
         <v>0.4303812199677951</v>
       </c>
       <c r="C62" s="0">
-        <v>0.36955180505095558</v>
+        <v>0.36841983197218897</v>
       </c>
       <c r="D62" s="0">
-        <v>0.49952399638503364</v>
+        <v>0.49990941438021524</v>
       </c>
       <c r="E62" s="0">
         <v>86</v>
@@ -3728,24 +4027,24 @@
         <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>656</v>
+        <v>755</v>
       </c>
       <c r="B63" s="0">
         <v>0.37650767150364201</v>
       </c>
       <c r="C63" s="0">
-        <v>0.31671957939915552</v>
+        <v>0.31664718816121212</v>
       </c>
       <c r="D63" s="0">
-        <v>0.44385116389393608</v>
+        <v>0.44380069831973251</v>
       </c>
       <c r="E63" s="0">
         <v>86</v>
@@ -3754,48 +4053,48 @@
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>657</v>
+        <v>756</v>
       </c>
       <c r="B64" s="0">
         <v>-0.053873548464153098</v>
       </c>
       <c r="C64" s="0">
-        <v>-0.14694823473495844</v>
+        <v>-0.14382128566903646</v>
       </c>
       <c r="D64" s="0">
-        <v>0.039389586530581194</v>
+        <v>0.037989163896734374</v>
       </c>
       <c r="E64" s="0"/>
       <c r="F64" s="0">
         <v>0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>658</v>
+        <v>757</v>
       </c>
       <c r="B65" s="0">
         <v>1.5801084489402315</v>
       </c>
       <c r="C65" s="0">
-        <v>1.4917277937778755</v>
+        <v>1.4914733061739136</v>
       </c>
       <c r="D65" s="0">
-        <v>1.6682099940997219</v>
+        <v>1.6685149475762411</v>
       </c>
       <c r="E65" s="0">
         <v>86</v>
@@ -3804,24 +4103,24 @@
         <v>0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>659</v>
+        <v>758</v>
       </c>
       <c r="B66" s="0">
         <v>1.5920901939234926</v>
       </c>
       <c r="C66" s="0">
-        <v>1.4978147300644959</v>
+        <v>1.4996306327740565</v>
       </c>
       <c r="D66" s="0">
-        <v>1.6779475143653535</v>
+        <v>1.6810343566397197</v>
       </c>
       <c r="E66" s="0">
         <v>86</v>
@@ -3830,48 +4129,48 @@
         <v>0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="B67" s="0">
         <v>0.0119817449832611</v>
       </c>
       <c r="C67" s="0">
-        <v>-0.11356421344433071</v>
+        <v>-0.11388622317914826</v>
       </c>
       <c r="D67" s="0">
-        <v>0.1412637585145492</v>
+        <v>0.13795172396869004</v>
       </c>
       <c r="E67" s="0"/>
       <c r="F67" s="0">
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="B68" s="0">
         <v>1.5801084489402315</v>
       </c>
       <c r="C68" s="0">
-        <v>1.4910368477913409</v>
+        <v>1.4905610359879637</v>
       </c>
       <c r="D68" s="0">
-        <v>1.6675240216386986</v>
+        <v>1.6686955841406736</v>
       </c>
       <c r="E68" s="0">
         <v>86</v>
@@ -3880,24 +4179,24 @@
         <v>0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>662</v>
+        <v>761</v>
       </c>
       <c r="B69" s="0">
         <v>1.5683869608515011</v>
       </c>
       <c r="C69" s="0">
-        <v>1.4868673845005298</v>
+        <v>1.4839039168771428</v>
       </c>
       <c r="D69" s="0">
-        <v>1.6524185515937333</v>
+        <v>1.6467189347847029</v>
       </c>
       <c r="E69" s="0">
         <v>86</v>
@@ -3906,48 +4205,48 @@
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>663</v>
+        <v>762</v>
       </c>
       <c r="B70" s="0">
         <v>-0.011721488088730414</v>
       </c>
       <c r="C70" s="0">
-        <v>-0.13039808080537052</v>
+        <v>-0.13294970291640704</v>
       </c>
       <c r="D70" s="0">
-        <v>0.10996881303444095</v>
+        <v>0.1098219555517761</v>
       </c>
       <c r="E70" s="0"/>
       <c r="F70" s="0">
         <v>0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>664</v>
+        <v>763</v>
       </c>
       <c r="B71" s="0">
         <v>1.5920901939234926</v>
       </c>
       <c r="C71" s="0">
-        <v>1.5012850190907887</v>
+        <v>1.4989042438973794</v>
       </c>
       <c r="D71" s="0">
-        <v>1.6822083574188591</v>
+        <v>1.6812372063404992</v>
       </c>
       <c r="E71" s="0">
         <v>86</v>
@@ -3956,24 +4255,24 @@
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>665</v>
+        <v>764</v>
       </c>
       <c r="B72" s="0">
         <v>1.5683869608515011</v>
       </c>
       <c r="C72" s="0">
-        <v>1.4874606195442419</v>
+        <v>1.4849481600680048</v>
       </c>
       <c r="D72" s="0">
-        <v>1.6477166006044794</v>
+        <v>1.6461879807181359</v>
       </c>
       <c r="E72" s="0">
         <v>86</v>
@@ -3982,48 +4281,48 @@
         <v>0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>666</v>
+        <v>765</v>
       </c>
       <c r="B73" s="0">
         <v>-0.023703233071991514</v>
       </c>
       <c r="C73" s="0">
-        <v>-0.1428904852267022</v>
+        <v>-0.14365744713990802</v>
       </c>
       <c r="D73" s="0">
-        <v>0.097077952090738107</v>
+        <v>0.097784843324495663</v>
       </c>
       <c r="E73" s="0"/>
       <c r="F73" s="0">
         <v>0</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>667</v>
+        <v>766</v>
       </c>
       <c r="B74" s="0">
         <v>1.7299235531219841</v>
       </c>
       <c r="C74" s="0">
-        <v>1.6547292579556525</v>
+        <v>1.6576681071027131</v>
       </c>
       <c r="D74" s="0">
-        <v>1.8053656232868178</v>
+        <v>1.8046585271639057</v>
       </c>
       <c r="E74" s="0">
         <v>86</v>
@@ -4032,24 +4331,24 @@
         <v>0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>668</v>
+        <v>767</v>
       </c>
       <c r="B75" s="0">
         <v>1.7314304698422747</v>
       </c>
       <c r="C75" s="0">
-        <v>1.6504424081962512</v>
+        <v>1.6518284680550834</v>
       </c>
       <c r="D75" s="0">
-        <v>1.8158427757216016</v>
+        <v>1.8175609165942679</v>
       </c>
       <c r="E75" s="0">
         <v>86</v>
@@ -4058,48 +4357,48 @@
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>669</v>
+        <v>768</v>
       </c>
       <c r="B76" s="0">
         <v>0.0015069167202905742</v>
       </c>
       <c r="C76" s="0">
-        <v>-0.11044082431541653</v>
+        <v>-0.11004515552309942</v>
       </c>
       <c r="D76" s="0">
-        <v>0.1134434820621163</v>
+        <v>0.11298666432750926</v>
       </c>
       <c r="E76" s="0"/>
       <c r="F76" s="0">
         <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>670</v>
+        <v>769</v>
       </c>
       <c r="B77" s="0">
         <v>1.7299235531219841</v>
       </c>
       <c r="C77" s="0">
-        <v>1.6567583891342275</v>
+        <v>1.6561873869642254</v>
       </c>
       <c r="D77" s="0">
-        <v>1.801844653630609</v>
+        <v>1.8040050292005023</v>
       </c>
       <c r="E77" s="0">
         <v>86</v>
@@ -4108,24 +4407,24 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>671</v>
+        <v>770</v>
       </c>
       <c r="B78" s="0">
         <v>1.7199113371504475</v>
       </c>
       <c r="C78" s="0">
-        <v>1.6338650842383253</v>
+        <v>1.6323051148132546</v>
       </c>
       <c r="D78" s="0">
-        <v>1.8006266861509121</v>
+        <v>1.7988750273443692</v>
       </c>
       <c r="E78" s="0">
         <v>86</v>
@@ -4134,48 +4433,48 @@
         <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>672</v>
+        <v>771</v>
       </c>
       <c r="B79" s="0">
         <v>-0.010012215971536564</v>
       </c>
       <c r="C79" s="0">
-        <v>-0.12117943367439465</v>
+        <v>-0.12395418359604736</v>
       </c>
       <c r="D79" s="0">
-        <v>0.1014360581605307</v>
+        <v>0.10145204228423754</v>
       </c>
       <c r="E79" s="0"/>
       <c r="F79" s="0">
         <v>0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>673</v>
+        <v>772</v>
       </c>
       <c r="B80" s="0">
         <v>1.7314304698422747</v>
       </c>
       <c r="C80" s="0">
-        <v>1.6496239820416898</v>
+        <v>1.6506493833331035</v>
       </c>
       <c r="D80" s="0">
-        <v>1.8161345468886727</v>
+        <v>1.8165929736452009</v>
       </c>
       <c r="E80" s="0">
         <v>86</v>
@@ -4184,24 +4483,24 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>674</v>
+        <v>773</v>
       </c>
       <c r="B81" s="0">
         <v>1.7199113371504475</v>
       </c>
       <c r="C81" s="0">
-        <v>1.6352350276770711</v>
+        <v>1.6319136023886542</v>
       </c>
       <c r="D81" s="0">
-        <v>1.8016994819315577</v>
+        <v>1.8010210789610492</v>
       </c>
       <c r="E81" s="0">
         <v>86</v>
@@ -4210,34 +4509,34 @@
         <v>0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>675</v>
+        <v>774</v>
       </c>
       <c r="B82" s="0">
         <v>-0.011519132691827139</v>
       </c>
       <c r="C82" s="0">
-        <v>-0.12930016913693487</v>
+        <v>-0.13167793198239136</v>
       </c>
       <c r="D82" s="0">
-        <v>0.1038378513450664</v>
+        <v>0.10784368648632425</v>
       </c>
       <c r="E82" s="0"/>
       <c r="F82" s="0">
         <v>0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
